--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="45" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -246,13 +246,7 @@
     <t>WP21110052S00411/0032000FD2</t>
   </si>
   <si>
-    <t>WP21110052S00774</t>
-  </si>
-  <si>
     <t>WP21110069S00061/0032001182</t>
-  </si>
-  <si>
-    <t>WP21110052S00663</t>
   </si>
   <si>
     <t>Camera</t>
@@ -262,6 +256,51 @@
   </si>
   <si>
     <t>SVT-CW-21-05015319</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Full phụ kiện</t>
+  </si>
+  <si>
+    <t>125.212.203.111,21083</t>
+  </si>
+  <si>
+    <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>WP21110052S00663/0032000E7F</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>WP21110052S00774/0032000C1F</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>V3.3.21.3_R22053002</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, cấu hình lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -667,6 +706,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,30 +747,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1051,41 +1090,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1130,58 +1169,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1206,23 +1245,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1254,7 +1293,7 @@
       <c r="R6" s="62"/>
       <c r="S6" s="67"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1285,7 +1324,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +1353,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1382,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1411,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1401,7 +1440,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1430,7 +1469,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1461,7 +1500,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1490,7 +1529,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1519,7 +1558,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1587,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3265,13 +3304,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3283,6 +3315,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3293,8 +3332,2393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="37" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="76"/>
+      <c r="K5" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="57">
+        <v>44880</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="67"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="64"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="57">
+        <v>44880</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="67"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="64"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="57">
+        <v>44880</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="65"/>
+      <c r="I8" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="67"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="64"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="57">
+        <v>44880</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="67"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="64"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44880</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="67"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="64"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="64"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="64"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="64"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="64"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="64"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="64"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>3</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>2</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>5</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>3</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3326,41 +5750,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3405,58 +5829,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3481,23 +5905,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,10 +5933,10 @@
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="65" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
@@ -3531,7 +5955,7 @@
       <c r="R6" s="62"/>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3548,10 +5972,10 @@
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="65" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="65" t="s">
@@ -3570,7 +5994,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3580,20 +6004,12 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="57">
-        <v>44880</v>
-      </c>
+      <c r="B8" s="57"/>
       <c r="C8" s="57"/>
-      <c r="D8" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>69</v>
-      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="65"/>
-      <c r="G8" s="65" t="s">
-        <v>62</v>
-      </c>
+      <c r="G8" s="65"/>
       <c r="H8" s="65"/>
       <c r="I8" s="58"/>
       <c r="J8" s="59"/>
@@ -3607,7 +6023,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3617,20 +6033,12 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="57">
-        <v>44880</v>
-      </c>
+      <c r="B9" s="57"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>70</v>
-      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="65"/>
-      <c r="G9" s="65" t="s">
-        <v>62</v>
-      </c>
+      <c r="G9" s="65"/>
       <c r="H9" s="65"/>
       <c r="I9" s="58"/>
       <c r="J9" s="59"/>
@@ -3644,7 +6052,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3654,20 +6062,12 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="57">
-        <v>44880</v>
-      </c>
+      <c r="B10" s="57"/>
       <c r="C10" s="57"/>
-      <c r="D10" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>71</v>
-      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="65"/>
-      <c r="G10" s="65" t="s">
-        <v>62</v>
-      </c>
+      <c r="G10" s="65"/>
       <c r="H10" s="65"/>
       <c r="I10" s="58"/>
       <c r="J10" s="59"/>
@@ -3681,7 +6081,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3710,7 +6110,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3739,7 +6139,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3770,7 +6170,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3799,7 +6199,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3828,7 +6228,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3857,7 +6257,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5574,13 +7974,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5592,2269 +7985,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="37" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="53" style="19" customWidth="1"/>
-    <col min="11" max="11" width="34.85546875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="45"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="45"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="57">
-        <v>44880</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="64"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="57">
-        <v>44880</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="64"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="64"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="64"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="64"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="64"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="64"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="64"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="64"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="64"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="64"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="64"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="46"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="46"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>51</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="32"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>52</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="32"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>53</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="32"/>
-    </row>
-    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>54</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="32"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>56</v>
-      </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-    </row>
-    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>57</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>58</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-    </row>
-    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>59</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -7862,17 +7992,6 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7916,41 +8035,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -7995,58 +8114,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8071,23 +8190,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8113,7 +8232,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8144,7 +8263,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8173,7 +8292,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8202,7 +8321,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8231,7 +8350,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8260,7 +8379,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8289,7 +8408,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8320,7 +8439,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8349,7 +8468,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8378,7 +8497,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8407,7 +8526,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9638,13 +9757,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9656,6 +9768,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="45" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -234,9 +234,6 @@
     <t>VNSH01</t>
   </si>
   <si>
-    <t>Không rõ</t>
-  </si>
-  <si>
     <t>VNSH02</t>
   </si>
   <si>
@@ -301,6 +298,30 @@
   </si>
   <si>
     <t>Nâng cấp FW, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test lại thiết bị </t>
+  </si>
+  <si>
+    <t>Thiết bị khởi động lại liên tục. Main có dấu hiệu oxi hóa</t>
+  </si>
+  <si>
+    <t>WSP21060008S0085/0032000ADE</t>
+  </si>
+  <si>
+    <t>WSP21060008S0029/0032000A89</t>
+  </si>
+  <si>
+    <t>WSP21110069S00324/0032001125</t>
+  </si>
+  <si>
+    <t>00BD000A70</t>
+  </si>
+  <si>
+    <t>00BD000711/VM21051100S0498</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1271,26 +1292,42 @@
       <c r="B6" s="57">
         <v>44880</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <v>44882</v>
+      </c>
       <c r="D6" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>65</v>
+      <c r="E6" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="H6" s="65" t="s">
+        <v>94</v>
+      </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="J6" s="59" t="s">
+        <v>89</v>
+      </c>
       <c r="K6" s="60"/>
       <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="M6" s="61" t="s">
+        <v>72</v>
+      </c>
       <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
+      <c r="O6" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="67"/>
       <c r="T6" s="55"/>
       <c r="U6" s="68" t="s">
@@ -1738,7 +1775,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2047,7 +2084,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2239,7 +2276,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2325,7 +2362,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -3332,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3546,33 +3583,37 @@
       <c r="B6" s="57">
         <v>44880</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <v>44882</v>
+      </c>
       <c r="D6" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>67</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="65" t="s">
+        <v>90</v>
+      </c>
       <c r="I6" s="58"/>
       <c r="J6" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" s="60"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" s="59"/>
       <c r="O6" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="59" t="s">
         <v>18</v>
@@ -3597,39 +3638,41 @@
       <c r="B7" s="57">
         <v>44880</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="57">
+        <v>44882</v>
+      </c>
       <c r="D7" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="65" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="61" t="s">
         <v>86</v>
-      </c>
-      <c r="L7" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="61" t="s">
-        <v>87</v>
       </c>
       <c r="N7" s="59"/>
       <c r="O7" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="61" t="s">
         <v>74</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>75</v>
       </c>
       <c r="Q7" s="59" t="s">
         <v>19</v>
@@ -3652,37 +3695,41 @@
       <c r="B8" s="57">
         <v>44880</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="57">
+        <v>44882</v>
+      </c>
       <c r="D8" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="65" t="s">
+        <v>91</v>
+      </c>
       <c r="I8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="66" t="s">
         <v>77</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>78</v>
       </c>
       <c r="L8" s="61"/>
       <c r="M8" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="59"/>
       <c r="O8" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="59" t="s">
         <v>18</v>
@@ -3705,33 +3752,37 @@
       <c r="B9" s="57">
         <v>44880</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="57">
+        <v>44882</v>
+      </c>
       <c r="D9" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="65" t="s">
+        <v>92</v>
+      </c>
       <c r="I9" s="58"/>
       <c r="J9" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="60"/>
       <c r="L9" s="61"/>
       <c r="M9" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="59"/>
       <c r="O9" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="59" t="s">
         <v>18</v>
@@ -3754,39 +3805,41 @@
       <c r="B10" s="57">
         <v>44880</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="57">
+        <v>44882</v>
+      </c>
       <c r="D10" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="66" t="s">
         <v>77</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="66" t="s">
-        <v>78</v>
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N10" s="59"/>
       <c r="O10" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="61" t="s">
         <v>74</v>
-      </c>
-      <c r="P10" s="61" t="s">
-        <v>75</v>
       </c>
       <c r="Q10" s="59" t="s">
         <v>19</v>
@@ -5717,8 +5770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5931,12 +5984,14 @@
       <c r="B6" s="57">
         <v>44880</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <v>44882</v>
+      </c>
       <c r="D6" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>70</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>71</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
@@ -5944,15 +5999,27 @@
       </c>
       <c r="H6" s="65"/>
       <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="J6" s="59" t="s">
+        <v>87</v>
+      </c>
       <c r="K6" s="60"/>
       <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="M6" s="61" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
+      <c r="O6" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
       <c r="U6" s="68" t="s">
@@ -5970,12 +6037,14 @@
       <c r="B7" s="57">
         <v>44880</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="57">
+        <v>44882</v>
+      </c>
       <c r="D7" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="65" t="s">
@@ -5983,15 +6052,27 @@
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="J7" s="59" t="s">
+        <v>87</v>
+      </c>
       <c r="K7" s="60"/>
       <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="M7" s="61" t="s">
+        <v>88</v>
+      </c>
       <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
+      <c r="O7" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
       <c r="U7" s="69"/>
@@ -6376,7 +6457,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6877,7 +6958,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6909,7 +6990,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="45" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>VNSH02</t>
   </si>
   <si>
-    <t>WSP21060008S0123</t>
-  </si>
-  <si>
     <t>WP21110052S00411/0032000FD2</t>
   </si>
   <si>
@@ -309,19 +306,22 @@
     <t>Thiết bị khởi động lại liên tục. Main có dấu hiệu oxi hóa</t>
   </si>
   <si>
-    <t>WSP21060008S0085/0032000ADE</t>
-  </si>
-  <si>
-    <t>WSP21060008S0029/0032000A89</t>
-  </si>
-  <si>
-    <t>WSP21110069S00324/0032001125</t>
-  </si>
-  <si>
     <t>00BD000A70</t>
   </si>
   <si>
-    <t>00BD000711/VM21051100S0498</t>
+    <t>WSP21060008S0123/0032000B1B</t>
+  </si>
+  <si>
+    <t>00320040CF/ WP22050219S01847</t>
+  </si>
+  <si>
+    <t>0032004147/ WP22050219S01846</t>
+  </si>
+  <si>
+    <t>0032004808/ WP22050219S01850</t>
+  </si>
+  <si>
+    <t>00BD000ED6/ WM21051535S0316</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,30 +727,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,8 +745,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1111,41 +1114,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1190,58 +1193,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1266,23 +1269,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,7 +1302,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
@@ -1308,19 +1311,19 @@
       </c>
       <c r="I6" s="58"/>
       <c r="J6" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" s="60"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="59"/>
       <c r="O6" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P6" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="59" t="s">
         <v>18</v>
@@ -1330,7 +1333,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1361,7 +1364,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +1393,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1419,7 +1422,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1448,7 +1451,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1477,7 +1480,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1506,7 +1509,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1537,7 +1540,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1566,7 +1569,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1595,7 +1598,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1627,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3341,6 +3344,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3352,13 +3362,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3369,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3402,41 +3405,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3481,58 +3484,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3557,23 +3560,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,30 +3593,30 @@
         <v>65</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="58"/>
       <c r="J6" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="60"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="59"/>
       <c r="O6" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P6" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="59" t="s">
         <v>18</v>
@@ -3623,7 +3626,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3645,34 +3648,34 @@
         <v>65</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="65" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="61" t="s">
         <v>85</v>
-      </c>
-      <c r="L7" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="61" t="s">
-        <v>86</v>
       </c>
       <c r="N7" s="59"/>
       <c r="O7" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="61" t="s">
         <v>73</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>74</v>
       </c>
       <c r="Q7" s="59" t="s">
         <v>19</v>
@@ -3682,7 +3685,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3702,34 +3705,34 @@
         <v>65</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="65" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="66" t="s">
         <v>76</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>77</v>
       </c>
       <c r="L8" s="61"/>
       <c r="M8" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N8" s="59"/>
       <c r="O8" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="59" t="s">
         <v>18</v>
@@ -3739,7 +3742,7 @@
       </c>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3759,30 +3762,30 @@
         <v>65</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="65" t="s">
-        <v>92</v>
+      <c r="H9" s="83" t="s">
+        <v>93</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="60"/>
       <c r="L9" s="61"/>
       <c r="M9" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9" s="59"/>
       <c r="O9" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="59" t="s">
         <v>18</v>
@@ -3792,7 +3795,7 @@
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3812,34 +3815,34 @@
         <v>65</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="66" t="s">
         <v>76</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="66" t="s">
-        <v>77</v>
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N10" s="59"/>
       <c r="O10" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="61" t="s">
         <v>73</v>
-      </c>
-      <c r="P10" s="61" t="s">
-        <v>74</v>
       </c>
       <c r="Q10" s="59" t="s">
         <v>19</v>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3878,7 +3881,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3907,7 +3910,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3938,7 +3941,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3967,7 +3970,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3996,7 +3999,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4025,7 +4028,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5742,6 +5745,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5753,13 +5763,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5803,41 +5806,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5882,58 +5885,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5958,23 +5961,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5988,10 +5991,10 @@
         <v>44882</v>
       </c>
       <c r="D6" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>69</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>70</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
@@ -6000,19 +6003,19 @@
       <c r="H6" s="65"/>
       <c r="I6" s="58"/>
       <c r="J6" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="60"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="59"/>
       <c r="O6" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="61" t="s">
         <v>73</v>
-      </c>
-      <c r="P6" s="61" t="s">
-        <v>74</v>
       </c>
       <c r="Q6" s="59" t="s">
         <v>19</v>
@@ -6022,7 +6025,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6041,10 +6044,10 @@
         <v>44882</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="65" t="s">
@@ -6053,19 +6056,19 @@
       <c r="H7" s="65"/>
       <c r="I7" s="58"/>
       <c r="J7" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" s="60"/>
       <c r="L7" s="61"/>
       <c r="M7" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" s="59"/>
       <c r="O7" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="61" t="s">
         <v>73</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>74</v>
       </c>
       <c r="Q7" s="59" t="s">
         <v>19</v>
@@ -6075,7 +6078,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6104,7 +6107,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6133,7 +6136,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6162,7 +6165,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6191,7 +6194,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6220,7 +6223,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6251,7 +6254,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6280,7 +6283,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6309,7 +6312,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6338,7 +6341,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8055,6 +8058,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8066,13 +8076,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8116,41 +8119,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8195,58 +8198,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8271,23 +8274,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8313,7 +8316,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8344,7 +8347,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8373,7 +8376,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8402,7 +8405,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8431,7 +8434,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8460,7 +8463,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8489,7 +8492,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8520,7 +8523,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8549,7 +8552,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8578,7 +8581,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8607,7 +8610,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9838,6 +9841,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9849,13 +9859,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
@@ -12,27 +12,33 @@
     <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="VNSH01" sheetId="45" r:id="rId1"/>
-    <sheet name="VNSH02" sheetId="46" r:id="rId2"/>
-    <sheet name="Camera" sheetId="47" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TOP-1" sheetId="49" r:id="rId1"/>
+    <sheet name="TG102LE-4G" sheetId="48" r:id="rId2"/>
+    <sheet name="VNSH01" sheetId="45" r:id="rId3"/>
+    <sheet name="VNSH02" sheetId="46" r:id="rId4"/>
+    <sheet name="Camera" sheetId="47" r:id="rId5"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Camera!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VNSH01!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">VNSH02!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">Camera!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">VNSH01!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Camera!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VNSH01!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">Camera!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">VNSH01!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -323,6 +329,54 @@
   <si>
     <t>00BD000ED6/ WM21051535S0316</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>TG102LE-4G (STM)</t>
+  </si>
+  <si>
+    <t>Thay MCU GD</t>
+  </si>
+  <si>
+    <t>125.212.203.114.16767</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>Cầu chì lỗi gây sụt áp</t>
+  </si>
+  <si>
+    <t>Thay cầu chì, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>TG102LE-4G (GD)</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại khối GPS</t>
+  </si>
+  <si>
+    <t>TOP-1</t>
+  </si>
 </sst>
 </file>
 
@@ -524,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,6 +781,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,35 +838,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,6 +1147,4683 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="37" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="57">
+        <v>44893</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183038540105</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="67"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="72"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="72"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="72"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="72"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="72"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="72"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="72"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="72"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="72"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="72"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="72"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="72"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="37" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="57">
+        <v>44893</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="38">
+        <v>861881051079524</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="68"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="57">
+        <v>44893</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862205051174805</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="66"/>
+      <c r="M7" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="67"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="68"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="57">
+        <v>44893</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="38">
+        <v>861881051082643</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="67"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="68"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="57">
+        <v>44893</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="38">
+        <v>862205051172056</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="68"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="57">
+        <v>44893</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="38">
+        <v>861881051089317</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="68"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="57">
+        <v>44893</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="38">
+        <v>861881051090414</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="68"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="57">
+        <v>44893</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="38">
+        <v>862205051191346</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="67"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="68"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="68"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="68"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="68"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="68"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>2</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>1</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>2</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>4</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
     <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
@@ -1114,41 +5857,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1193,58 +5936,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1269,23 +6012,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,7 +6076,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1364,7 +6107,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1393,7 +6136,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +6165,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1451,7 +6194,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +6223,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1509,7 +6252,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1540,7 +6283,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +6312,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1598,7 +6341,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +6370,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3368,11 +8111,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -3405,41 +8148,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3484,58 +8227,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3560,23 +8303,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3626,7 +8369,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3685,7 +8428,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3742,7 +8485,7 @@
       </c>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3768,7 +8511,7 @@
       <c r="G9" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="70" t="s">
         <v>93</v>
       </c>
       <c r="I9" s="58"/>
@@ -3795,7 +8538,7 @@
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3852,7 +8595,7 @@
       </c>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3881,7 +8624,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3910,7 +8653,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3941,7 +8684,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3970,7 +8713,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3999,7 +8742,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4028,7 +8771,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5769,7 +10512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
@@ -5806,41 +10549,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5885,58 +10628,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5961,23 +10704,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,7 +10768,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6078,7 +10821,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6107,7 +10850,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6136,7 +10879,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6165,7 +10908,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6194,7 +10937,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6223,7 +10966,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6254,7 +10997,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6283,7 +11026,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6312,7 +11055,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6341,7 +11084,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8082,7 +12825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -8119,41 +12862,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8198,58 +12941,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8274,23 +13017,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8316,7 +13059,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8347,7 +13090,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8376,7 +13119,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8405,7 +13148,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8434,7 +13177,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8463,7 +13206,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8492,7 +13235,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8523,7 +13266,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8552,7 +13295,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8581,7 +13324,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8610,7 +13353,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -372,10 +372,22 @@
     <t>Thiết bị không chốt GPS</t>
   </si>
   <si>
-    <t>Xử lý lại khối GPS</t>
+    <t>TOP-1</t>
   </si>
   <si>
-    <t>TOP-1</t>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Xử lý lại anten GSM</t>
+  </si>
+  <si>
+    <t>LE4.1.00.---06.200724</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Thay MCU GD Xử lý lại khối GPS</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1375,7 @@
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="38">
         <v>868183038540105</v>
@@ -3414,13 +3426,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3432,6 +3437,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3442,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3783,7 +3795,7 @@
       </c>
       <c r="L8" s="61"/>
       <c r="M8" s="61" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N8" s="59"/>
       <c r="O8" s="59"/>
@@ -3813,7 +3825,7 @@
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="37" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E9" s="38">
         <v>862205051172056</v>
@@ -3823,15 +3835,32 @@
         <v>62</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
+      <c r="I9" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>101</v>
+      </c>
       <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="61" t="s">
+        <v>111</v>
+      </c>
       <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="62"/>
+      <c r="O9" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="67"/>
       <c r="T9" s="68"/>
       <c r="U9" s="74"/>
@@ -3849,7 +3878,7 @@
       </c>
       <c r="C10" s="57"/>
       <c r="D10" s="37" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E10" s="38">
         <v>861881051089317</v>
@@ -3859,11 +3888,17 @@
         <v>95</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="58" t="s">
+        <v>113</v>
+      </c>
       <c r="J10" s="59"/>
-      <c r="K10" s="66"/>
+      <c r="K10" s="66" t="s">
+        <v>112</v>
+      </c>
       <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+      <c r="M10" s="61" t="s">
+        <v>99</v>
+      </c>
       <c r="N10" s="59"/>
       <c r="O10" s="59"/>
       <c r="P10" s="61"/>
@@ -3886,7 +3921,7 @@
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="37" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E11" s="38">
         <v>861881051090414</v>
@@ -4230,7 +4265,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4411,7 +4446,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -4731,7 +4766,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5084,7 +5119,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -5796,6 +5831,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5807,13 +5849,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8087,13 +8122,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8105,6 +8133,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10488,13 +10523,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10506,6 +10534,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12801,13 +12836,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12819,6 +12847,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14584,13 +14619,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14602,6 +14630,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="49" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>Thay MCU GD Xử lý lại khối GPS</t>
+  </si>
+  <si>
+    <t>GPS+MCU</t>
+  </si>
+  <si>
+    <t>GSM hoạt động không ổn định</t>
   </si>
 </sst>
 </file>
@@ -808,30 +814,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,6 +831,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1159,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1192,41 +1198,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1271,58 +1277,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
@@ -1347,23 +1353,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,7 +1379,9 @@
       <c r="B6" s="57">
         <v>44893</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <v>44895</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>109</v>
       </c>
@@ -1403,7 +1411,9 @@
         <v>105</v>
       </c>
       <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
+      <c r="O6" s="59" t="s">
+        <v>72</v>
+      </c>
       <c r="P6" s="61" t="s">
         <v>73</v>
       </c>
@@ -1415,7 +1425,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1446,7 +1456,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1475,7 +1485,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1504,7 +1514,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1533,7 +1543,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1572,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1601,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1622,7 +1632,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1661,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1690,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1719,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3426,6 +3436,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3437,13 +3454,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3454,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3487,41 +3497,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3566,58 +3576,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
@@ -3642,23 +3652,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3668,7 +3678,9 @@
       <c r="B6" s="57">
         <v>44893</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <v>44895</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>98</v>
       </c>
@@ -3683,16 +3695,22 @@
       <c r="I6" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="59"/>
+      <c r="J6" s="59" t="s">
+        <v>116</v>
+      </c>
       <c r="K6" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="61"/>
+      <c r="L6" s="61" t="s">
+        <v>101</v>
+      </c>
       <c r="M6" s="61" t="s">
         <v>99</v>
       </c>
       <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
+      <c r="O6" s="59" t="s">
+        <v>72</v>
+      </c>
       <c r="P6" s="61" t="s">
         <v>73</v>
       </c>
@@ -3704,7 +3722,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3719,7 +3737,9 @@
       <c r="B7" s="57">
         <v>44893</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="57">
+        <v>44895</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>107</v>
       </c>
@@ -3759,7 +3779,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3772,7 +3792,9 @@
       <c r="B8" s="57">
         <v>44893</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="57">
+        <v>44895</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>98</v>
       </c>
@@ -3798,7 +3820,9 @@
         <v>114</v>
       </c>
       <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
+      <c r="O8" s="59" t="s">
+        <v>72</v>
+      </c>
       <c r="P8" s="61" t="s">
         <v>73</v>
       </c>
@@ -3806,11 +3830,11 @@
         <v>18</v>
       </c>
       <c r="R8" s="62" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="S8" s="67"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3823,7 +3847,9 @@
       <c r="B9" s="57">
         <v>44893</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="57">
+        <v>44895</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>107</v>
       </c>
@@ -3863,7 +3889,7 @@
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3876,7 +3902,9 @@
       <c r="B10" s="57">
         <v>44893</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="57">
+        <v>44895</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>98</v>
       </c>
@@ -3891,7 +3919,9 @@
       <c r="I10" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="59"/>
+      <c r="J10" s="59" t="s">
+        <v>116</v>
+      </c>
       <c r="K10" s="66" t="s">
         <v>112</v>
       </c>
@@ -3900,13 +3930,21 @@
         <v>99</v>
       </c>
       <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="62"/>
+      <c r="O10" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="62" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="67"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3919,7 +3957,9 @@
       <c r="B11" s="57">
         <v>44893</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="57">
+        <v>44895</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>98</v>
       </c>
@@ -3931,19 +3971,37 @@
         <v>95</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
+      <c r="I11" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>99</v>
+      </c>
       <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="62"/>
+      <c r="O11" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="62" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="67"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3956,7 +4014,9 @@
       <c r="B12" s="57">
         <v>44893</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="57">
+        <v>44895</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>107</v>
       </c>
@@ -3996,7 +4056,7 @@
       </c>
       <c r="S12" s="67"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4027,7 +4087,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4056,7 +4116,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4085,7 +4145,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4114,7 +4174,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4265,7 +4325,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4414,7 +4474,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -4766,7 +4826,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5119,7 +5179,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -5831,13 +5891,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5849,6 +5902,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5892,41 +5952,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5971,58 +6031,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -6047,23 +6107,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6111,7 +6171,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6142,7 +6202,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6171,7 +6231,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6200,7 +6260,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6229,7 +6289,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6258,7 +6318,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6287,7 +6347,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6318,7 +6378,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6347,7 +6407,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6376,7 +6436,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6405,7 +6465,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8122,6 +8182,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8133,13 +8200,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8183,41 +8243,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8262,58 +8322,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8338,23 +8398,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8404,7 +8464,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8463,7 +8523,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8520,7 +8580,7 @@
       </c>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8573,7 +8633,7 @@
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8630,7 +8690,7 @@
       </c>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8659,7 +8719,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8688,7 +8748,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8719,7 +8779,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8748,7 +8808,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8777,7 +8837,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8806,7 +8866,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10523,6 +10583,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10534,13 +10601,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10552,7 +10612,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10584,41 +10644,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10663,58 +10723,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -10739,23 +10799,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10803,7 +10863,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10856,7 +10916,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10885,7 +10945,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10914,7 +10974,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10943,7 +11003,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10972,7 +11032,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11001,7 +11061,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11032,7 +11092,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11061,7 +11121,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11090,7 +11150,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11119,7 +11179,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12836,6 +12896,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12847,13 +12914,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12897,41 +12957,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12976,58 +13036,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13052,23 +13112,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="81"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13094,7 +13154,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13125,7 +13185,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13154,7 +13214,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13183,7 +13243,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13212,7 +13272,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13241,7 +13301,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13270,7 +13330,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13301,7 +13361,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13330,7 +13390,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13359,7 +13419,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13388,7 +13448,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14619,6 +14679,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14630,13 +14697,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_AnhTuanNB.xlsx
@@ -814,6 +814,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -831,30 +855,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1198,41 +1198,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1277,58 +1277,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
@@ -1353,23 +1353,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1456,7 +1456,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1632,7 +1632,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3436,13 +3436,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3454,6 +3447,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3497,41 +3497,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3576,58 +3576,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
@@ -3652,23 +3652,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="S8" s="67"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="S10" s="67"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="S11" s="67"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="S12" s="67"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4087,7 +4087,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5891,6 +5891,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5902,13 +5909,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5952,41 +5952,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6031,58 +6031,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -6107,23 +6107,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6202,7 +6202,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="67"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6231,7 +6231,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6318,7 +6318,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6378,7 +6378,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6436,7 +6436,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6465,7 +6465,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8182,13 +8182,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8200,6 +8193,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8243,41 +8243,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8322,58 +8322,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8398,23 +8398,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8719,7 +8719,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8748,7 +8748,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8779,7 +8779,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8808,7 +8808,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8866,7 +8866,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10583,13 +10583,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10601,6 +10594,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10644,41 +10644,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10723,58 +10723,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -10799,23 +10799,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="S7" s="67"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10945,7 +10945,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="67"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10974,7 +10974,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="67"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="67"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11032,7 +11032,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="67"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11061,7 +11061,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="67"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11092,7 +11092,7 @@
       <c r="R13" s="62"/>
       <c r="S13" s="67"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11121,7 +11121,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="67"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="67"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11179,7 +11179,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="67"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12896,13 +12896,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12914,6 +12907,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12957,41 +12957,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13036,58 +13036,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13112,23 +13112,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="73"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13154,7 +13154,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13185,7 +13185,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13243,7 +13243,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13272,7 +13272,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13301,7 +13301,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13330,7 +13330,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13361,7 +13361,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13390,7 +13390,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13419,7 +13419,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13448,7 +13448,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14679,13 +14679,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14697,6 +14690,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
